--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H2">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I2">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J2">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N2">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O2">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P2">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q2">
-        <v>4.345301945944</v>
+        <v>3.467962605492778</v>
       </c>
       <c r="R2">
-        <v>39.107717513496</v>
+        <v>31.211663449435</v>
       </c>
       <c r="S2">
-        <v>0.006598036904278346</v>
+        <v>0.008823894140390887</v>
       </c>
       <c r="T2">
-        <v>0.006598036904278345</v>
+        <v>0.008823894140390883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H3">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I3">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J3">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>2.596873</v>
       </c>
       <c r="O3">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P3">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q3">
-        <v>3.335265560488445</v>
+        <v>2.478020759243222</v>
       </c>
       <c r="R3">
-        <v>30.017390044396</v>
+        <v>22.302186833189</v>
       </c>
       <c r="S3">
-        <v>0.00506436733912414</v>
+        <v>0.006305083227431813</v>
       </c>
       <c r="T3">
-        <v>0.005064367339124139</v>
+        <v>0.006305083227431811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H4">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I4">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J4">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N4">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O4">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P4">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q4">
-        <v>8.086211886946666</v>
+        <v>5.068588477251445</v>
       </c>
       <c r="R4">
-        <v>72.77590698252001</v>
+        <v>45.617296295263</v>
       </c>
       <c r="S4">
-        <v>0.01227834684668791</v>
+        <v>0.01289653126410129</v>
       </c>
       <c r="T4">
-        <v>0.01227834684668791</v>
+        <v>0.01289653126410129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H5">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I5">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J5">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N5">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O5">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P5">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q5">
-        <v>1.797183424212444</v>
+        <v>0.6513410120036668</v>
       </c>
       <c r="R5">
-        <v>16.174650817912</v>
+        <v>5.862069108033</v>
       </c>
       <c r="S5">
-        <v>0.002728897255984579</v>
+        <v>0.001657273965443684</v>
       </c>
       <c r="T5">
-        <v>0.002728897255984579</v>
+        <v>0.001657273965443683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H6">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I6">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J6">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N6">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O6">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P6">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q6">
-        <v>14.48126511198133</v>
+        <v>9.830266183427</v>
       </c>
       <c r="R6">
-        <v>130.331386007832</v>
+        <v>88.472395650843</v>
       </c>
       <c r="S6">
-        <v>0.02198878761893126</v>
+        <v>0.0250121578695912</v>
       </c>
       <c r="T6">
-        <v>0.02198878761893126</v>
+        <v>0.02501215786959119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="H7">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="I7">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="J7">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N7">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O7">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P7">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q7">
-        <v>10.44920191618533</v>
+        <v>6.005169638994334</v>
       </c>
       <c r="R7">
-        <v>94.042817245668</v>
+        <v>54.04652675094901</v>
       </c>
       <c r="S7">
-        <v>0.01586638183512216</v>
+        <v>0.01527957109619581</v>
       </c>
       <c r="T7">
-        <v>0.01586638183512216</v>
+        <v>0.0152795710961958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I8">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J8">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N8">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O8">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P8">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q8">
-        <v>2.844174726607999</v>
+        <v>3.055175745097777</v>
       </c>
       <c r="R8">
-        <v>25.59757253947199</v>
+        <v>27.49658170588</v>
       </c>
       <c r="S8">
-        <v>0.00431868027626755</v>
+        <v>0.007773598052162958</v>
       </c>
       <c r="T8">
-        <v>0.004318680276267549</v>
+        <v>0.007773598052162956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I9">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J9">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>2.596873</v>
       </c>
       <c r="O9">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P9">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q9">
         <v>2.183065327030222</v>
@@ -1013,10 +1013,10 @@
         <v>19.647587943272</v>
       </c>
       <c r="S9">
-        <v>0.003314831919940763</v>
+        <v>0.005554597767796664</v>
       </c>
       <c r="T9">
-        <v>0.003314831919940762</v>
+        <v>0.005554597767796663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I10">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J10">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N10">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O10">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P10">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q10">
-        <v>5.292750600293332</v>
+        <v>4.465281301780444</v>
       </c>
       <c r="R10">
-        <v>47.63475540264</v>
+        <v>40.187531716024</v>
       </c>
       <c r="S10">
-        <v>0.008036671379873501</v>
+        <v>0.01136147473204336</v>
       </c>
       <c r="T10">
-        <v>0.008036671379873501</v>
+        <v>0.01136147473204335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I11">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J11">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N11">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O11">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P11">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q11">
-        <v>1.176328765598222</v>
+        <v>0.5738127794426666</v>
       </c>
       <c r="R11">
-        <v>10.586958890384</v>
+        <v>5.164315014984</v>
       </c>
       <c r="S11">
-        <v>0.00178617290663218</v>
+        <v>0.001460010905015538</v>
       </c>
       <c r="T11">
-        <v>0.00178617290663218</v>
+        <v>0.001460010905015537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I12">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J12">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N12">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O12">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P12">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q12">
-        <v>9.478569902202665</v>
+        <v>8.660183003095998</v>
       </c>
       <c r="R12">
-        <v>85.307129119824</v>
+        <v>77.94164702786399</v>
       </c>
       <c r="S12">
-        <v>0.01439254505038283</v>
+        <v>0.02203499482223314</v>
       </c>
       <c r="T12">
-        <v>0.01439254505038282</v>
+        <v>0.02203499482223314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>7.565863999999999</v>
       </c>
       <c r="I13">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="J13">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N13">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O13">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P13">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q13">
-        <v>6.839422524130665</v>
+        <v>5.290382484861333</v>
       </c>
       <c r="R13">
-        <v>61.554802717176</v>
+        <v>47.613442363752</v>
       </c>
       <c r="S13">
-        <v>0.01038518445427918</v>
+        <v>0.01346086458217772</v>
       </c>
       <c r="T13">
-        <v>0.01038518445427918</v>
+        <v>0.01346086458217771</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H14">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I14">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J14">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N14">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O14">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P14">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q14">
-        <v>20.123650498744</v>
+        <v>21.72968078463778</v>
       </c>
       <c r="R14">
-        <v>181.1128544886959</v>
+        <v>195.56712706174</v>
       </c>
       <c r="S14">
-        <v>0.03055635495329589</v>
+        <v>0.05528906299175174</v>
       </c>
       <c r="T14">
-        <v>0.03055635495329588</v>
+        <v>0.05528906299175173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H15">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I15">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J15">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>2.596873</v>
       </c>
       <c r="O15">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P15">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q15">
-        <v>15.44604248328844</v>
+        <v>15.52686871270622</v>
       </c>
       <c r="R15">
-        <v>139.014382349596</v>
+        <v>139.741818414356</v>
       </c>
       <c r="S15">
-        <v>0.02345373453849775</v>
+        <v>0.03950660991432432</v>
       </c>
       <c r="T15">
-        <v>0.02345373453849775</v>
+        <v>0.03950660991432431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H16">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N16">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O16">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P16">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q16">
-        <v>37.44828412294666</v>
+        <v>31.75893807647244</v>
       </c>
       <c r="R16">
-        <v>337.03455710652</v>
+        <v>285.830442688252</v>
       </c>
       <c r="S16">
-        <v>0.05686259866837047</v>
+        <v>0.08080753441636432</v>
       </c>
       <c r="T16">
-        <v>0.05686259866837046</v>
+        <v>0.0808075344163643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H17">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I17">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J17">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N17">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O17">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P17">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q17">
-        <v>8.322986885812442</v>
+        <v>4.081195180814666</v>
       </c>
       <c r="R17">
-        <v>74.90688197231199</v>
+        <v>36.730756627332</v>
       </c>
       <c r="S17">
-        <v>0.01263787311205713</v>
+        <v>0.01038420488869861</v>
       </c>
       <c r="T17">
-        <v>0.01263787311205713</v>
+        <v>0.0103842048886986</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H18">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I18">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J18">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N18">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O18">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P18">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q18">
-        <v>67.06459562958132</v>
+        <v>61.59482396250799</v>
       </c>
       <c r="R18">
-        <v>603.5813606662319</v>
+        <v>554.3534156625719</v>
       </c>
       <c r="S18">
-        <v>0.1018328950298877</v>
+        <v>0.1567220492459587</v>
       </c>
       <c r="T18">
-        <v>0.1018328950298876</v>
+        <v>0.1567220492459586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="H19">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="I19">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="J19">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N19">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O19">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P19">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q19">
-        <v>48.39159394858532</v>
+        <v>37.62740091437733</v>
       </c>
       <c r="R19">
-        <v>435.5243455372679</v>
+        <v>338.646608229396</v>
       </c>
       <c r="S19">
-        <v>0.07347924878446031</v>
+        <v>0.09573926833024042</v>
       </c>
       <c r="T19">
-        <v>0.0734792487844603</v>
+        <v>0.09573926833024041</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H20">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I20">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J20">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N20">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O20">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P20">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q20">
-        <v>1.29623356469</v>
+        <v>0.6120653505088889</v>
       </c>
       <c r="R20">
-        <v>11.66610208221</v>
+        <v>5.50858815458</v>
       </c>
       <c r="S20">
-        <v>0.001968239952662455</v>
+        <v>0.001557340858098513</v>
       </c>
       <c r="T20">
-        <v>0.001968239952662454</v>
+        <v>0.001557340858098513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H21">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I21">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J21">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>2.596873</v>
       </c>
       <c r="O21">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P21">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q21">
-        <v>0.9949327389538888</v>
+        <v>0.4373491923391111</v>
       </c>
       <c r="R21">
-        <v>8.954394650585</v>
+        <v>3.936142731052</v>
       </c>
       <c r="S21">
-        <v>0.001510735734951638</v>
+        <v>0.001112792557068939</v>
       </c>
       <c r="T21">
-        <v>0.001510735734951638</v>
+        <v>0.001112792557068939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H22">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I22">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J22">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N22">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O22">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P22">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q22">
-        <v>2.412172822383333</v>
+        <v>0.8945619476982222</v>
       </c>
       <c r="R22">
-        <v>21.70955540145</v>
+        <v>8.051057529284</v>
       </c>
       <c r="S22">
-        <v>0.003662715617826848</v>
+        <v>0.002276126021661464</v>
       </c>
       <c r="T22">
-        <v>0.003662715617826849</v>
+        <v>0.002276126021661463</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H23">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N23">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O23">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P23">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q23">
-        <v>0.5361122208188888</v>
+        <v>0.1149560448493333</v>
       </c>
       <c r="R23">
-        <v>4.82500998737</v>
+        <v>1.034604403644</v>
       </c>
       <c r="S23">
-        <v>0.0008140488881559617</v>
+        <v>0.0002924944948777524</v>
       </c>
       <c r="T23">
-        <v>0.0008140488881559617</v>
+        <v>0.0002924944948777524</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H24">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I24">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J24">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N24">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O24">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P24">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q24">
-        <v>4.319861342396666</v>
+        <v>1.734956803636</v>
       </c>
       <c r="R24">
-        <v>38.87875208157</v>
+        <v>15.614611232724</v>
       </c>
       <c r="S24">
-        <v>0.006559407128221217</v>
+        <v>0.004414429137496327</v>
       </c>
       <c r="T24">
-        <v>0.006559407128221216</v>
+        <v>0.004414429137496326</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="H25">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="I25">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="J25">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N25">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O25">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P25">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q25">
-        <v>3.117069059061666</v>
+        <v>1.059860407414667</v>
       </c>
       <c r="R25">
-        <v>28.053621531555</v>
+        <v>9.538743666732001</v>
       </c>
       <c r="S25">
-        <v>0.004733051221922635</v>
+        <v>0.002696711903353899</v>
       </c>
       <c r="T25">
-        <v>0.004733051221922635</v>
+        <v>0.002696711903353898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H26">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I26">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J26">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N26">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O26">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P26">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q26">
-        <v>12.06462075363</v>
+        <v>13.88589091498778</v>
       </c>
       <c r="R26">
-        <v>108.58158678267</v>
+        <v>124.97301823489</v>
       </c>
       <c r="S26">
-        <v>0.01831928228667196</v>
+        <v>0.03533130123283357</v>
       </c>
       <c r="T26">
-        <v>0.01831928228667196</v>
+        <v>0.03533130123283355</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H27">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I27">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J27">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>2.596873</v>
       </c>
       <c r="O27">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P27">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q27">
-        <v>9.260280321254998</v>
+        <v>9.922115622996222</v>
       </c>
       <c r="R27">
-        <v>83.34252289129498</v>
+        <v>89.29904060696599</v>
       </c>
       <c r="S27">
-        <v>0.01406108759844291</v>
+        <v>0.02524585985078597</v>
       </c>
       <c r="T27">
-        <v>0.0140610875984429</v>
+        <v>0.02524585985078596</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H28">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I28">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J28">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N28">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O28">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P28">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q28">
-        <v>22.45116241934999</v>
+        <v>20.29487474190244</v>
       </c>
       <c r="R28">
-        <v>202.06046177415</v>
+        <v>182.653872677122</v>
       </c>
       <c r="S28">
-        <v>0.03409051891666343</v>
+        <v>0.05163833832331469</v>
       </c>
       <c r="T28">
-        <v>0.03409051891666343</v>
+        <v>0.05163833832331466</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H29">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I29">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J29">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N29">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O29">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P29">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q29">
-        <v>4.989834241109999</v>
+        <v>2.608001085944667</v>
       </c>
       <c r="R29">
-        <v>44.90850816998999</v>
+        <v>23.472009773502</v>
       </c>
       <c r="S29">
-        <v>0.007576714087684206</v>
+        <v>0.006635805548753959</v>
       </c>
       <c r="T29">
-        <v>0.007576714087684206</v>
+        <v>0.006635805548753955</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H30">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I30">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J30">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N30">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O30">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P30">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q30">
-        <v>40.20686566370999</v>
+        <v>39.36086383173799</v>
       </c>
       <c r="R30">
-        <v>361.8617909733899</v>
+        <v>354.247774485642</v>
       </c>
       <c r="S30">
-        <v>0.06105131168206723</v>
+        <v>0.1001498964191527</v>
       </c>
       <c r="T30">
-        <v>0.06105131168206722</v>
+        <v>0.1001498964191526</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="H31">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="I31">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="J31">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N31">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O31">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P31">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q31">
-        <v>29.01194436316499</v>
+        <v>24.04499125826733</v>
       </c>
       <c r="R31">
-        <v>261.107499268485</v>
+        <v>216.404921324406</v>
       </c>
       <c r="S31">
-        <v>0.0440526071500532</v>
+        <v>0.06118014569520625</v>
       </c>
       <c r="T31">
-        <v>0.0440526071500532</v>
+        <v>0.06118014569520622</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H32">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I32">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J32">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>1.127766</v>
+        <v>1.211431666666667</v>
       </c>
       <c r="N32">
-        <v>3.383297999999999</v>
+        <v>3.634295</v>
       </c>
       <c r="O32">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="P32">
-        <v>0.1022558006241316</v>
+        <v>0.1261015467385861</v>
       </c>
       <c r="Q32">
-        <v>26.669129178344</v>
+        <v>6.809593482490556</v>
       </c>
       <c r="R32">
-        <v>240.022162605096</v>
+        <v>61.286341342415</v>
       </c>
       <c r="S32">
-        <v>0.0404952062509554</v>
+        <v>0.01732634946334848</v>
       </c>
       <c r="T32">
-        <v>0.04049520625095539</v>
+        <v>0.01732634946334848</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H33">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I33">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J33">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>2.596873</v>
       </c>
       <c r="O33">
-        <v>0.07848712343228133</v>
+        <v>0.0901054267701638</v>
       </c>
       <c r="P33">
-        <v>0.0784871234322813</v>
+        <v>0.09010542677016377</v>
       </c>
       <c r="Q33">
-        <v>20.47006840566622</v>
+        <v>4.865771616133444</v>
       </c>
       <c r="R33">
-        <v>184.230615650996</v>
+        <v>43.79194454520101</v>
       </c>
       <c r="S33">
-        <v>0.03108236630132413</v>
+        <v>0.01238048345275608</v>
       </c>
       <c r="T33">
-        <v>0.03108236630132412</v>
+        <v>0.01238048345275608</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H34">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I34">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J34">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>2.09867</v>
+        <v>1.770563666666667</v>
       </c>
       <c r="N34">
-        <v>6.29601</v>
+        <v>5.311691</v>
       </c>
       <c r="O34">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192403</v>
       </c>
       <c r="P34">
-        <v>0.1902887488147774</v>
+        <v>0.1843032695192402</v>
       </c>
       <c r="Q34">
-        <v>49.62882489161333</v>
+        <v>9.952537263651889</v>
       </c>
       <c r="R34">
-        <v>446.65942402452</v>
+        <v>89.572835372867</v>
       </c>
       <c r="S34">
-        <v>0.07535789738535527</v>
+        <v>0.02532326476175515</v>
       </c>
       <c r="T34">
-        <v>0.07535789738535527</v>
+        <v>0.02532326476175514</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H35">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I35">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J35">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.4664353333333333</v>
+        <v>0.227527</v>
       </c>
       <c r="N35">
-        <v>1.399306</v>
+        <v>0.682581</v>
       </c>
       <c r="O35">
-        <v>0.04229221172599963</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="P35">
-        <v>0.04229221172599962</v>
+        <v>0.02368396618171361</v>
       </c>
       <c r="Q35">
-        <v>11.03014646479022</v>
+        <v>1.278954825866333</v>
       </c>
       <c r="R35">
-        <v>99.271318183112</v>
+        <v>11.510593432797</v>
       </c>
       <c r="S35">
-        <v>0.01674850547548557</v>
+        <v>0.003254176378924074</v>
       </c>
       <c r="T35">
-        <v>0.01674850547548557</v>
+        <v>0.003254176378924073</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H36">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I36">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J36">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.758422</v>
+        <v>3.433917</v>
       </c>
       <c r="N36">
-        <v>11.275266</v>
+        <v>10.301751</v>
       </c>
       <c r="O36">
-        <v>0.3407803131973743</v>
+        <v>0.3574466946727705</v>
       </c>
       <c r="P36">
-        <v>0.3407803131973742</v>
+        <v>0.3574466946727704</v>
       </c>
       <c r="Q36">
-        <v>88.87822635611467</v>
+        <v>19.302433200343</v>
       </c>
       <c r="R36">
-        <v>799.9040372050321</v>
+        <v>173.721898803087</v>
       </c>
       <c r="S36">
-        <v>0.1349553666878841</v>
+        <v>0.04911316717833848</v>
       </c>
       <c r="T36">
-        <v>0.1349553666878841</v>
+        <v>0.04911316717833846</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="H37">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="I37">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="J37">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.711953</v>
+        <v>2.097731</v>
       </c>
       <c r="N37">
-        <v>8.135859</v>
+        <v>6.293193</v>
       </c>
       <c r="O37">
-        <v>0.2458958022054359</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="P37">
-        <v>0.2458958022054358</v>
+        <v>0.2183590961175257</v>
       </c>
       <c r="Q37">
-        <v>64.13158836371866</v>
+        <v>11.79158159611567</v>
       </c>
       <c r="R37">
-        <v>577.184295273468</v>
+        <v>106.124234365041</v>
       </c>
       <c r="S37">
-        <v>0.09737932875959841</v>
+        <v>0.03000253451035164</v>
       </c>
       <c r="T37">
-        <v>0.0973793287595984</v>
+        <v>0.03000253451035163</v>
       </c>
     </row>
   </sheetData>
